--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,24 +688,74 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>monitor not working</t>
+          <t>headphone not working</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-06-08</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>00:04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>23:25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>magin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>replaced the headphone</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mohan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6389</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>headphone not working</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20:42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>magin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>replaced the headphone</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Closed</t>
         </is>
       </c>
     </row>

--- a/tickets.xlsx
+++ b/tickets.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,40 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dharaneesh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ghcvou;io;io;uulutfu</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
